--- a/Dataset/Folds/Fold_2/Excel/85.xlsx
+++ b/Dataset/Folds/Fold_2/Excel/85.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2701" uniqueCount="339">
   <si>
     <t>Doi</t>
   </si>
@@ -1064,6 +1064,106 @@
   </si>
   <si>
     <t>[Biao%Tang%NULL%1,                         Fan%Xia%NULL%1,                         Sanyi%Tang%NULL%1,                         Nicola Luigi%Bragazzi%NULL%1,                         Qian%Li%NULL%1,                         Xiaodan%Sun%NULL%1,                         Juhua%Liang%NULL%1,                         Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,                         Jianhong%Wu%wujh@yorku.ca%1]</t>
+  </si>
+  <si>
+    <t>[Tuo%Ji%NULL%1,                          Hai-Lian%Chen%NULL%1,                          Jing%Xu%NULL%1,                          Ling-Ning%Wu%NULL%1,                          Jie-Jia%Li%NULL%1,                          Kai%Chen%NULL%1,                          Gang%Qin%tonygqin@ntu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Hien%Lau%hlau2@uci.edu%1,                          Veria%Khosrawipour%veriakhosrawipour@yahoo.de%1,                          Piotr%Kocbach%piotr.kocbach@uwm.edu.pl%1,                          Agata%Mikolajczyk%agata.mikolajczyk@upwr.edu.pl%1,                          Justyna%Schubert%justyna.schubert@upwr.edu.pl%1,                          Jacek%Bania%jacek.bania@upwr.edu.pl%1,                          Tanja%Khosrawipour%tkhosrawipour@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Carlo%Signorelli%NULL%1,                          Thea%Scognamiglio%NULL%1,                          Anna%Odone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nadya%Johanna%NULL%0,                          Henrico%Citrawijaya%NULL%1,                          Grace%Wangge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Tang%NULL%1,                          Fan%Xia%NULL%1,                          Sanyi%Tang%NULL%1,                          Nicola Luigi%Bragazzi%NULL%1,                          Qian%Li%NULL%1,                          Xiaodan%Sun%NULL%1,                          Juhua%Liang%NULL%1,                          Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,                          Jianhong%Wu%wujh@yorku.ca%1]</t>
+  </si>
+  <si>
+    <t>[Tuo%Ji%NULL%1,                           Hai-Lian%Chen%NULL%1,                           Jing%Xu%NULL%1,                           Ling-Ning%Wu%NULL%1,                           Jie-Jia%Li%NULL%1,                           Kai%Chen%NULL%1,                           Gang%Qin%tonygqin@ntu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Hien%Lau%hlau2@uci.edu%1,                           Veria%Khosrawipour%veriakhosrawipour@yahoo.de%1,                           Piotr%Kocbach%piotr.kocbach@uwm.edu.pl%1,                           Agata%Mikolajczyk%agata.mikolajczyk@upwr.edu.pl%1,                           Justyna%Schubert%justyna.schubert@upwr.edu.pl%1,                           Jacek%Bania%jacek.bania@upwr.edu.pl%1,                           Tanja%Khosrawipour%tkhosrawipour@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Carlo%Signorelli%NULL%1,                           Thea%Scognamiglio%NULL%1,                           Anna%Odone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nadya%Johanna%NULL%0,                           Henrico%Citrawijaya%NULL%1,                           Grace%Wangge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Tang%NULL%1,                           Fan%Xia%NULL%1,                           Sanyi%Tang%NULL%1,                           Nicola Luigi%Bragazzi%NULL%1,                           Qian%Li%NULL%1,                           Xiaodan%Sun%NULL%1,                           Juhua%Liang%NULL%1,                           Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,                           Jianhong%Wu%wujh@yorku.ca%1]</t>
+  </si>
+  <si>
+    <t>[Tuo%Ji%NULL%0, Hai-Lian%Chen%NULL%1, Jing%Xu%NULL%0, Ling-Ning%Wu%NULL%1, Jie-Jia%Li%NULL%1, Kai%Chen%NULL%1, Gang%Qin%tonygqin@ntu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>[Hien%Lau%hlau2@uci.edu%0, Veria%Khosrawipour%veriakhosrawipour@yahoo.de%1, Piotr%Kocbach%piotr.kocbach@uwm.edu.pl%1, Agata%Mikolajczyk%agata.mikolajczyk@upwr.edu.pl%1, Justyna%Schubert%justyna.schubert@upwr.edu.pl%1, Jacek%Bania%jacek.bania@upwr.edu.pl%1, Tanja%Khosrawipour%tkhosrawipour@gmail.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since the beginning of the COVID-19 epidemic in Italy, the Italian Government implemented several restrictive measures to contain the spread of the infection.
+ Data shows that, among these measures, the lockdown implemented as of 9 March had a positive impact, in particular the central and southern regions of Italy, while other actions appeared to be less effective.
+ When the true prevalence of a disease is unknown, it is possible estimate it, based on mortality data and the assumptive case-fatality rate of the disease.
+ Given these assumptions, the estimated period-prevalence of COVID-19 in Italy varies from 0.35% in Sicily to 13.3% in Lombardy.
+</t>
+  </si>
+  <si>
+    <t>[Carlo%Signorelli%NULL%0, Thea%Scognamiglio%NULL%1, Anna%Odone%NULL%0]</t>
+  </si>
+  <si>
+    <t>Mattioli 1885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From the end of February, the SARS-CoV-2 epidemic in Spain has been following the footsteps of that in Italy very closely.
+ We have analyzed the trends of incident cases, deaths, and intensive care unit admissions (ICU) in both countries before and after their respective national lockdowns using an interrupted time-series design.
+ Data was analyzed with quasi-Poisson regression using an interaction model to estimate the change in trends.
+ After the first lockdown, incidence trends were considerably reduced in both countries.
+ However, although the slopes have been flattened for all outcomes, the trends kept rising.
+ During the second lockdown, implementing more restrictive measures for mobility, it has been a change in the trend slopes for both countries in daily incident cases and ICUs.
+ This improvement indicates that the efforts overtaken are being successful in flattening the epidemic curve, and reinforcing the belief that we must hold on.
+</t>
+  </si>
+  <si>
+    <t>[Aurelio%Tobías%NULL%0]</t>
+  </si>
+  <si>
+    <t>Published by Elsevier B.V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coronavirus disease 2019 (COVID-19) is a global pandemic.
+ Non-pharmacological interventions, such as lockdown and mass testing, remain as the mainstay of control measures for the outbreak.
+ We aim to evaluate the effectiveness of mass testing, lockdown, or a combination of both to control COVID-19 pandemic.
+ A systematic search on 11 major databases was conducted on June 8, 2020. This review is registered in Prospero (CRD420201 90546).
+ We included primary studies written in English which investigate mass screening, lockdown, or a combination of both to control and/or mitigate the COVID-19 pandemic.
+ There are four important outcomes as selected by WHO experts for their decision- making process: incident cases, onward transmission, mortality, and resource use.
+ Among 623 studies, only 14 studies met our criteria.
+ Four observational studies were rated as strong evidence and ten modelling studies were rated as moderate evidence.
+ Based on one modelling study, mass testing reduced the total infected people compared to no mass testing.
+ For lockdown, ten studies consistently showed that it successfully reduced the incidence, onward transmission, and mortality rate of COVID-19. A limited evidence showed that a combination of lockdown and mass screening resulted in a greater reduction of incidence and mortality rate compared to lockdown only.
+ However, there is not enough evidence on the effectiveness of mass testing only.
+</t>
+  </si>
+  <si>
+    <t>[Nadya%Johanna%NULL%0, Henrico%Citrawijaya%NULL%1, Grace%Wangge%NULL%1]</t>
+  </si>
+  <si>
+    <t>PAGEPress Publications, Pavia, Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              Since January 23rd 2020, stringent measures for controlling the novel coronavirus epidemics have been enforced and strengthened in mainland China.
+</t>
+  </si>
+  <si>
+    <t>[Biao%Tang%NULL%0, Fan%Xia%NULL%1, Sanyi%Tang%NULL%1, Nicola Luigi%Bragazzi%NULL%1, Qian%Li%NULL%0, Xiaodan%Sun%NULL%1, Juhua%Liang%NULL%1, Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1, Jianhong%Wu%wujh@yorku.ca%1]</t>
+  </si>
+  <si>
+    <t>The Author(s). Published by Elsevier Ltd on behalf of International Society for Infectious Diseases.</t>
   </si>
 </sst>
 </file>
@@ -1435,28 +1535,28 @@
         <v>44026</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
         <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>252</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1467,25 +1567,25 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>306</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>236</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>237</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
         <v>30</v>
@@ -1499,25 +1599,25 @@
         <v>44026</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>307</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
         <v>30</v>
@@ -1537,7 +1637,7 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -1549,10 +1649,10 @@
         <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>223</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1563,28 +1663,28 @@
         <v>43924</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>257</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
         <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>258</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1601,7 +1701,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -1613,10 +1713,10 @@
         <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>223</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1630,10 +1730,10 @@
         <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>327</v>
       </c>
       <c r="E8" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="F8" t="s">
         <v>49</v>
@@ -1645,10 +1745,10 @@
         <v>50</v>
       </c>
       <c r="I8" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1659,25 +1759,25 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>243</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>244</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>311</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>236</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>246</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="J9" t="s">
         <v>30</v>
@@ -1694,10 +1794,10 @@
         <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>330</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>331</v>
       </c>
       <c r="F10" t="s">
         <v>54</v>
@@ -1709,10 +1809,10 @@
         <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>228</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1726,10 +1826,10 @@
         <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>333</v>
       </c>
       <c r="E11" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="F11" t="s">
         <v>60</v>
@@ -1741,10 +1841,10 @@
         <v>61</v>
       </c>
       <c r="I11" t="s">
-        <v>223</v>
+        <v>30</v>
       </c>
       <c r="J11" t="s">
-        <v>30</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1755,28 +1855,28 @@
         <v>43998</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="H12" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="I12" t="s">
         <v>30</v>
       </c>
       <c r="J12" t="s">
-        <v>264</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1790,10 +1890,10 @@
         <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>336</v>
       </c>
       <c r="E13" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="F13" t="s">
         <v>65</v>
@@ -1805,10 +1905,10 @@
         <v>66</v>
       </c>
       <c r="I13" t="s">
-        <v>228</v>
+        <v>30</v>
       </c>
       <c r="J13" t="s">
-        <v>30</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
